--- a/data/trans_orig/P14B26-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B26-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{847FBB12-16FE-40D6-8F6B-0EDD82D9F252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2557D1ED-50A7-4629-BB40-6BED91F8F3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A269D907-2CF2-4804-8296-C5BEF1A01513}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FFEF6BA0-2C70-4148-9A3F-C0751B32209A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="312">
   <si>
     <t>Población cuya hipoacusia le limita en 2012 (Tasa respuesta: 1,58%)</t>
   </si>
@@ -100,55 +100,55 @@
     <t>76,36%</t>
   </si>
   <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>57,03%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
   </si>
   <si>
     <t>23,64%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
   </si>
   <si>
     <t>42,97%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
   </si>
   <si>
     <t>33,38%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -157,10 +157,10 @@
     <t>60,52%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
   </si>
   <si>
     <t>71,48%</t>
@@ -175,19 +175,19 @@
     <t>66,36%</t>
   </si>
   <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
   </si>
   <si>
     <t>39,48%</t>
   </si>
   <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
   </si>
   <si>
     <t>28,52%</t>
@@ -202,10 +202,10 @@
     <t>33,64%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -220,19 +220,19 @@
     <t>74,64%</t>
   </si>
   <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>57,85%</t>
   </si>
   <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
   </si>
   <si>
     <t>72,04%</t>
@@ -244,19 +244,19 @@
     <t>25,36%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
   </si>
   <si>
     <t>42,15%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -265,10 +265,10 @@
     <t>67,06%</t>
   </si>
   <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>75,03%</t>
@@ -283,19 +283,19 @@
     <t>71,61%</t>
   </si>
   <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>32,94%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
   </si>
   <si>
     <t>24,97%</t>
@@ -310,64 +310,64 @@
     <t>28,39%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
   </si>
   <si>
     <t>61,68%</t>
   </si>
   <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>70,04%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -385,7 +385,7 @@
     <t>67,92%</t>
   </si>
   <si>
-    <t>16,35%</t>
+    <t>13,36%</t>
   </si>
   <si>
     <t>42,8%</t>
@@ -400,16 +400,16 @@
     <t>32,08%</t>
   </si>
   <si>
-    <t>83,65%</t>
+    <t>86,64%</t>
   </si>
   <si>
     <t>47,5%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
   </si>
   <si>
     <t>67,76%</t>
@@ -424,19 +424,19 @@
     <t>59,3%</t>
   </si>
   <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>52,5%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>32,24%</t>
@@ -451,58 +451,64 @@
     <t>40,7%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>73,31%</t>
   </si>
   <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
   </si>
   <si>
     <t>43,92%</t>
   </si>
   <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
     <t>26,69%</t>
   </si>
   <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
   </si>
   <si>
     <t>68,87%</t>
   </si>
   <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
   <si>
     <t>56,08%</t>
   </si>
   <si>
-    <t>38,88%</t>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
   </si>
   <si>
     <t>33,35%</t>
@@ -517,19 +523,19 @@
     <t>44,85%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
   </si>
   <si>
     <t>40,31%</t>
   </si>
   <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
   </si>
   <si>
     <t>66,65%</t>
@@ -544,127 +550,127 @@
     <t>55,15%</t>
   </si>
   <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>59,69%</t>
   </si>
   <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>48,63%</t>
   </si>
   <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
   </si>
   <si>
     <t>46,58%</t>
   </si>
   <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
   </si>
   <si>
     <t>47,53%</t>
   </si>
   <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
   </si>
   <si>
     <t>51,37%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
   </si>
   <si>
     <t>53,42%</t>
   </si>
   <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
   </si>
   <si>
     <t>52,47%</t>
   </si>
   <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
   <si>
     <t>51,19%</t>
   </si>
   <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
   </si>
   <si>
     <t>44,67%</t>
   </si>
   <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
   </si>
   <si>
     <t>47,3%</t>
   </si>
   <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
   </si>
   <si>
     <t>48,81%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
   </si>
   <si>
     <t>55,33%</t>
   </si>
   <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
   </si>
   <si>
     <t>52,7%</t>
   </si>
   <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
   </si>
   <si>
     <t>Población cuya hipoacusia le limita en 2023 (Tasa respuesta: 6,37%)</t>
@@ -679,307 +685,295 @@
     <t>77,32%</t>
   </si>
   <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
   </si>
   <si>
     <t>52,53%</t>
   </si>
   <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
     <t>33,05%</t>
   </si>
   <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
   </si>
   <si>
     <t>66,95%</t>
   </si>
   <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
     <t>60,28%</t>
   </si>
   <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
+    <t>68,79%</t>
   </si>
   <si>
     <t>31,4%</t>
   </si>
   <si>
-    <t>25,68%</t>
+    <t>37,88%</t>
   </si>
   <si>
     <t>42,08%</t>
   </si>
   <si>
-    <t>48,08%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>68,6%</t>
   </si>
   <si>
-    <t>74,32%</t>
+    <t>62,12%</t>
   </si>
   <si>
     <t>57,92%</t>
   </si>
   <si>
-    <t>51,92%</t>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0D7854-711E-47B7-B9C6-EF65A5A4E165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F28FFDA-87F5-436D-AE11-4695796A281D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2448,7 +2442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1AA0D1-FF57-49E2-BEA9-DCD4E6B379AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039ED6A5-A297-4173-BEE9-24A4B3D6B68F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2933,13 +2927,13 @@
         <v>2862</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -2948,13 +2942,13 @@
         <v>16969</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -2963,13 +2957,13 @@
         <v>19831</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3031,13 @@
         <v>3361</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3052,13 +3046,13 @@
         <v>6918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3067,13 +3061,13 @@
         <v>10279</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3082,13 @@
         <v>6717</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3103,13 +3097,13 @@
         <v>8506</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3118,13 +3112,13 @@
         <v>15223</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3186,13 @@
         <v>8781</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3207,13 +3201,13 @@
         <v>9665</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3222,13 +3216,13 @@
         <v>18446</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3237,13 @@
         <v>9275</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -3258,13 +3252,13 @@
         <v>11086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3273,13 +3267,13 @@
         <v>20361</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3341,13 @@
         <v>25100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -3362,13 +3356,13 @@
         <v>32235</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -3377,13 +3371,13 @@
         <v>57335</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3392,13 @@
         <v>23937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -3413,13 +3407,13 @@
         <v>39931</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
@@ -3428,13 +3422,13 @@
         <v>63868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,7 +3505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858D8E5B-BF3C-4033-931E-CC30D3B4DAC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DDB132-FB48-4797-845E-039D2602554A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3528,7 +3522,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3635,13 +3629,13 @@
         <v>1973</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3650,13 +3644,13 @@
         <v>5939</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3665,13 +3659,13 @@
         <v>7913</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3680,13 @@
         <v>2508</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -3701,7 +3695,7 @@
         <v>4642</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>223</v>
@@ -3826,7 +3820,7 @@
         <v>235</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3835,13 @@
         <v>24689</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -3856,13 +3850,13 @@
         <v>21613</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M8" s="7">
         <v>93</v>
@@ -3871,13 +3865,13 @@
         <v>46302</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3939,13 @@
         <v>9990</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -3960,13 +3954,13 @@
         <v>17778</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -3975,13 +3969,13 @@
         <v>27768</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +3990,13 @@
         <v>41716</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -4011,13 +4005,13 @@
         <v>32746</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>118</v>
@@ -4026,13 +4020,13 @@
         <v>74462</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4094,13 @@
         <v>11159</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4115,13 +4109,13 @@
         <v>15595</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -4130,13 +4124,13 @@
         <v>26755</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4145,13 @@
         <v>14595</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4166,13 +4160,13 @@
         <v>15278</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -4181,13 +4175,13 @@
         <v>29873</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4249,13 @@
         <v>14884</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4270,13 +4264,13 @@
         <v>22468</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -4285,13 +4279,13 @@
         <v>37353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4300,13 @@
         <v>28711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4321,13 +4315,13 @@
         <v>27985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -4336,13 +4330,13 @@
         <v>56696</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4404,13 @@
         <v>51365</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="H19" s="7">
         <v>136</v>
@@ -4425,13 +4419,13 @@
         <v>74305</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -4440,13 +4434,13 @@
         <v>125670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4455,13 @@
         <v>112219</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -4476,13 +4470,13 @@
         <v>102264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
         <v>351</v>
@@ -4491,13 +4485,13 @@
         <v>214483</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B26-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B26-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2557D1ED-50A7-4629-BB40-6BED91F8F3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE6DE29C-83AA-4F62-91C0-2D3BA00440FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FFEF6BA0-2C70-4148-9A3F-C0751B32209A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D331964A-2824-419E-86F8-2BF80305DB6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="308">
   <si>
     <t>Población cuya hipoacusia le limita en 2012 (Tasa respuesta: 1,58%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -94,621 +94,615 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya hipoacusia le limita en 2016 (Tasa respuesta: 1,75%)</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>Población cuya hipoacusia le limita en 2023 (Tasa respuesta: 6,37%)</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
     <t>43,87%</t>
   </si>
   <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya hipoacusia le limita en 2015 (Tasa respuesta: 1,75%)</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>Población cuya hipoacusia le limita en 2023 (Tasa respuesta: 6,37%)</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
     <t>23,38%</t>
   </si>
   <si>
@@ -787,9 +781,6 @@
     <t>25,49%</t>
   </si>
   <si>
-    <t>45,45%</t>
-  </si>
-  <si>
     <t>27,16%</t>
   </si>
   <si>
@@ -809,9 +800,6 @@
   </si>
   <si>
     <t>64,81%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
   </si>
   <si>
     <t>74,51%</t>
@@ -1385,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F28FFDA-87F5-436D-AE11-4695796A281D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E2399-7BE6-4830-AF21-A2630AB8D7BE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1989,7 +1977,7 @@
         <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1998,13 +1986,13 @@
         <v>11698</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,10 +2007,10 @@
         <v>5240</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>13</v>
@@ -2034,13 +2022,13 @@
         <v>3284</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2049,13 +2037,13 @@
         <v>8525</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,7 +2099,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2123,13 +2111,13 @@
         <v>10198</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2138,13 +2126,13 @@
         <v>15167</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -2153,13 +2141,13 @@
         <v>25365</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2162,13 @@
         <v>5009</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2189,13 +2177,13 @@
         <v>5048</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2204,13 +2192,13 @@
         <v>10057</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2266,13 @@
         <v>31927</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -2293,13 +2281,13 @@
         <v>43867</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -2308,13 +2296,13 @@
         <v>75794</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2317,13 @@
         <v>19834</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -2344,13 +2332,13 @@
         <v>18766</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -2359,13 +2347,13 @@
         <v>38600</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,7 +2409,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039ED6A5-A297-4173-BEE9-24A4B3D6B68F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE77CF9B-A297-482C-8537-E595771FBB49}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2459,7 +2447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2566,7 +2554,7 @@
         <v>1536</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -2584,7 +2572,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>17</v>
@@ -2596,10 +2584,10 @@
         <v>2433</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2617,7 +2605,7 @@
         <v>1149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -2635,10 +2623,10 @@
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2647,13 +2635,13 @@
         <v>1149</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2709,13 @@
         <v>3560</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2736,13 +2724,13 @@
         <v>7083</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -2751,13 +2739,13 @@
         <v>10643</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2760,13 @@
         <v>3935</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2787,13 +2775,13 @@
         <v>3370</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -2802,13 +2790,13 @@
         <v>7304</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2864,13 @@
         <v>7861</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2891,13 +2879,13 @@
         <v>7672</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -2906,13 +2894,13 @@
         <v>15534</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2915,13 @@
         <v>2862</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -2942,13 +2930,13 @@
         <v>16969</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -2957,13 +2945,13 @@
         <v>19831</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3019,13 @@
         <v>3361</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3046,13 +3034,13 @@
         <v>6918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3061,13 +3049,13 @@
         <v>10279</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3070,13 @@
         <v>6717</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3097,13 +3085,13 @@
         <v>8506</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3112,13 +3100,13 @@
         <v>15223</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,7 +3162,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3186,13 +3174,13 @@
         <v>8781</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3201,13 +3189,13 @@
         <v>9665</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3216,13 +3204,13 @@
         <v>18446</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3225,13 @@
         <v>9275</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -3252,13 +3240,13 @@
         <v>11086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3267,13 +3255,13 @@
         <v>20361</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3329,13 @@
         <v>25100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -3356,13 +3344,13 @@
         <v>32235</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -3371,13 +3359,13 @@
         <v>57335</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3380,13 @@
         <v>23937</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -3407,13 +3395,13 @@
         <v>39931</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M20" s="7">
         <v>60</v>
@@ -3422,13 +3410,13 @@
         <v>63868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,7 +3472,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3505,7 +3493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DDB132-FB48-4797-845E-039D2602554A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB807E32-1A85-4698-A4CD-B755D38E0C6C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3522,7 +3510,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3629,13 +3617,13 @@
         <v>1973</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3644,13 +3632,13 @@
         <v>5939</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3659,13 +3647,13 @@
         <v>7913</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3668,13 @@
         <v>2508</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -3695,13 +3683,13 @@
         <v>4642</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -3710,13 +3698,13 @@
         <v>7150</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3772,13 @@
         <v>13358</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -3799,13 +3787,13 @@
         <v>12524</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -3814,13 +3802,13 @@
         <v>25882</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3823,13 @@
         <v>24689</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
@@ -3850,13 +3838,13 @@
         <v>21613</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>93</v>
@@ -3865,13 +3853,13 @@
         <v>46302</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3927,13 @@
         <v>9990</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -3954,13 +3942,13 @@
         <v>17778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>49</v>
@@ -3969,13 +3957,13 @@
         <v>27768</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3978,13 @@
         <v>41716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>58</v>
@@ -4005,13 +3993,13 @@
         <v>32746</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M11" s="7">
         <v>118</v>
@@ -4020,13 +4008,13 @@
         <v>74462</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4082,13 @@
         <v>11159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4109,13 +4097,13 @@
         <v>15595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -4124,13 +4112,13 @@
         <v>26755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4133,13 @@
         <v>14595</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4160,13 +4148,13 @@
         <v>15278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -4175,13 +4163,13 @@
         <v>29873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,7 +4225,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4249,13 +4237,13 @@
         <v>14884</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4264,13 +4252,13 @@
         <v>22468</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -4279,13 +4267,13 @@
         <v>37353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4288,13 @@
         <v>28711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4315,13 +4303,13 @@
         <v>27985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -4330,13 +4318,13 @@
         <v>56696</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4392,13 @@
         <v>51365</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>136</v>
@@ -4419,13 +4407,13 @@
         <v>74305</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -4434,13 +4422,13 @@
         <v>125670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4443,13 @@
         <v>112219</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -4470,13 +4458,13 @@
         <v>102264</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>351</v>
@@ -4485,13 +4473,13 @@
         <v>214483</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,7 +4535,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
